--- a/stats/nflstats.xlsx
+++ b/stats/nflstats.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="NFL" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="College Football" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>AEI</t>
   </si>
@@ -112,7 +113,7 @@
     <t>174-108</t>
   </si>
   <si>
-    <t>186-89</t>
+    <t>188-89</t>
   </si>
   <si>
     <t>Comparative</t>
@@ -124,7 +125,76 @@
     <t>162-104</t>
   </si>
   <si>
-    <t>174-85</t>
+    <t>176-85</t>
+  </si>
+  <si>
+    <t>106/129 (1/1 comp)</t>
+  </si>
+  <si>
+    <t>/129</t>
+  </si>
+  <si>
+    <t>66/105</t>
+  </si>
+  <si>
+    <t>98/120 (85/105 comp)</t>
+  </si>
+  <si>
+    <t>68/104</t>
+  </si>
+  <si>
+    <t>83/108 (79/104 comp)</t>
+  </si>
+  <si>
+    <t>70/99</t>
+  </si>
+  <si>
+    <t>80/107 (74/99 comp)</t>
+  </si>
+  <si>
+    <t>68/106</t>
+  </si>
+  <si>
+    <t>79/106</t>
+  </si>
+  <si>
+    <t>81/106</t>
+  </si>
+  <si>
+    <t>77/106</t>
+  </si>
+  <si>
+    <t>76/107</t>
+  </si>
+  <si>
+    <t>83/107</t>
+  </si>
+  <si>
+    <t>70/110</t>
+  </si>
+  <si>
+    <t>80/110</t>
+  </si>
+  <si>
+    <t>79/112</t>
+  </si>
+  <si>
+    <t>85/112</t>
+  </si>
+  <si>
+    <t>77/110</t>
+  </si>
+  <si>
+    <t>78/110</t>
+  </si>
+  <si>
+    <t>84/114</t>
+  </si>
+  <si>
+    <t>78/114</t>
+  </si>
+  <si>
+    <t>Bowls</t>
   </si>
 </sst>
 </file>
@@ -186,6 +256,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -751,7 +825,7 @@
         <v>46116.0</v>
       </c>
       <c r="E21" s="3">
-        <v>46055.0</v>
+        <v>46116.0</v>
       </c>
     </row>
     <row r="22">
@@ -843,4 +917,318 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.75"/>
+    <col customWidth="1" min="3" max="3" width="17.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>46023.0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1">
+        <v>129.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1">
+        <v>107.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1">
+        <v>106.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1">
+        <v>106.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1">
+        <v>107.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1">
+        <v>114.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>